--- a/data/ScalledupitExcelData.xlsx
+++ b/data/ScalledupitExcelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amel Boucetta Gacem\eclipse-workspace\Selenium-Midterm-Final-2023\AmelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amel Boucetta Gacem\eclipse-workspace\Selenium-Midterm-Final-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73B6F2-9D05-47C3-884F-72BD52833068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859B2CE-2686-4B11-AFF9-4203E4C9C415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="4095" windowWidth="13680" windowHeight="11385" xr2:uid="{618D3C7E-3FA6-476B-A897-7EFE553E044D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618D3C7E-3FA6-476B-A897-7EFE553E044D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>password</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>admin123654@gmail.com</t>
+  </si>
+  <si>
+    <t>nono15463</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
